--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5025407509914306</v>
+        <v>0.497548894319531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9852390617056365</v>
+        <v>0.985385685612579</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09661692567880945</v>
+        <v>0.09359241504645079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986647279266978</v>
+        <v>0.9987065274825667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03310964989294029</v>
+        <v>0.03318548061992788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996587458984089</v>
+        <v>0.9996579643272749</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1087394448876567</v>
+        <v>0.09731659812160222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993522701526393</v>
+        <v>0.9994203127916269</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.497548894319531</v>
+        <v>0.4848494546311366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.985385685612579</v>
+        <v>0.9857587014232243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09359241504645079</v>
+        <v>0.09668751914543174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987065274825667</v>
+        <v>0.9986637523058749</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03318548061992788</v>
+        <v>0.03224830283962941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996579643272749</v>
+        <v>0.9996676236188253</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09731659812160222</v>
+        <v>0.09715399643991034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994203127916269</v>
+        <v>0.9994212813634508</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4848494546311366</v>
+        <v>0.4935191168284981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9857587014232243</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9855040507337514</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5156447814141927</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09668751914543174</v>
+        <v>0.09660934663994822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986637523058749</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.998664832671067</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2551205522039418</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03224830283962941</v>
+        <v>0.03319235045495682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996676236188253</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>0.9996578935213501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1308862606550939</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09715399643991034</v>
+        <v>0.09415282550293474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994212813634508</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>0.99943915848242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2173766023767729</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4935191168284981</v>
+        <v>0.4843335627135847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9855040507337514</v>
+        <v>0.9857738545202548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5156447814141927</v>
+        <v>0.5144539743107902</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09660934663994822</v>
+        <v>0.09447949688590218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998664832671067</v>
+        <v>0.9986942677713554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2551205522039418</v>
+        <v>0.2484978502691945</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03319235045495682</v>
+        <v>0.03688000465082599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996578935213501</v>
+        <v>0.9996198856558589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1308862606550939</v>
+        <v>0.1345741075077279</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09415282550293474</v>
+        <v>0.1074361815468557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.99943915848242</v>
+        <v>0.9993600333205098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2173766023767729</v>
+        <v>0.2226613007526392</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       RandomForestRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4843335627135847</v>
+        <v>0.4964150075448933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9857738545202548</v>
+        <v>0.9854189908374392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5144539743107902</v>
+        <v>0.5197943089546899</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09447949688590218</v>
+        <v>0.09433148089300998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986942677713554</v>
+        <v>0.9986963133924546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2484978502691945</v>
+        <v>0.2490681084032768</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03688000465082599</v>
+        <v>0.03356298177852739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996198856558589</v>
+        <v>0.9996540735033265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1345741075077279</v>
+        <v>0.132108406813797</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1074361815468557</v>
+        <v>0.09838959378682038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993600333205098</v>
+        <v>0.9994139212625992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2226613007526392</v>
+        <v>0.2210435799373883</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4964150075448933</v>
+        <v>0.4823238761011415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9854189908374392</v>
+        <v>0.9858328842805653</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5197943089546899</v>
+        <v>0.5130777771524337</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09433148089300998</v>
+        <v>0.09610074314271536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986963133924546</v>
+        <v>0.9986718617091105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2490681084032768</v>
+        <v>0.2523825996258441</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03356298177852739</v>
+        <v>0.03377974073430215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996540735033265</v>
+        <v>0.999651839414988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132108406813797</v>
+        <v>0.1322800840944349</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09838959378682038</v>
+        <v>0.09827696000878165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994139212625992</v>
+        <v>0.999414592189878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2210435799373883</v>
+        <v>0.2199060518575364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/RandomForestRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4823238761011415</v>
+        <v>0.486268188819775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9858328842805653</v>
+        <v>0.9857170294836387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5130777771524337</v>
+        <v>0.5109070847733245</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09610074314271536</v>
+        <v>0.09527669313617208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986718617091105</v>
+        <v>0.9986832503033243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2523825996258441</v>
+        <v>0.2507181404971618</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03377974073430215</v>
+        <v>0.03305850808665715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999651839414988</v>
+        <v>0.9996592730061015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1322800840944349</v>
+        <v>0.1316546126141594</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09827696000878165</v>
+        <v>0.1033622337665045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999414592189878</v>
+        <v>0.9993843006650475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2199060518575364</v>
+        <v>0.2207132792383323</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
